--- a/src/Source/rc101_25customers_datasets.xlsx
+++ b/src/Source/rc101_25customers_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rl-meta-test\src\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55729AB1-ECE4-40FD-A883-88C064E7126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFEEA0-C923-416D-91F7-063539BC1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{4964EC4A-59E1-469B-88B2-1139221C8797}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4964EC4A-59E1-469B-88B2-1139221C8797}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="3" r:id="rId1"/>
@@ -2550,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C43AB0-D05D-43AB-9EEB-7D0EF3121832}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2000</v>
+        <v>240</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3348,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802C5A16-431F-4B84-B8F9-1A0460B50DDE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Source/rc101_25customers_datasets.xlsx
+++ b/src/Source/rc101_25customers_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rl-meta-test\src\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFEEA0-C923-416D-91F7-063539BC1E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701942B1-76F6-40E2-9206-CC99B134B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4964EC4A-59E1-469B-88B2-1139221C8797}"/>
   </bookViews>
@@ -2551,7 +2551,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
